--- a/data/trans_orig/P6903-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1EF866-B072-4A83-8453-DEC7052B9A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{560AE2AB-337F-4AA9-A03C-3D43A32D787E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28D1A85B-3534-4E34-88C1-253BE56305DD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB7F8417-EAF6-427F-BEC5-3103D5568020}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="460">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>37,31%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
   </si>
   <si>
     <t>35,08%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>62,69%</t>
   </si>
   <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>64,92%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>34,79%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
   </si>
   <si>
     <t>31,94%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>65,21%</t>
   </si>
   <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>68,06%</t>
   </si>
   <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>35,87%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
   </si>
   <si>
     <t>31,45%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
   </si>
   <si>
     <t>34,29%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
   </si>
   <si>
     <t>64,13%</t>
   </si>
   <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
   </si>
   <si>
     <t>68,55%</t>
   </si>
   <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>65,71%</t>
   </si>
   <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>26,63%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>39,27%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
   </si>
   <si>
     <t>73,37%</t>
   </si>
   <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>60,73%</t>
   </si>
   <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>16,77%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>28,63%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
   </si>
   <si>
     <t>83,23%</t>
   </si>
   <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>71,37%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -386,55 +386,55 @@
     <t>31,59%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
   </si>
   <si>
     <t>30,78%</t>
   </si>
   <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
   </si>
   <si>
     <t>68,41%</t>
   </si>
   <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>69,22%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>68,67%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -446,325 +446,325 @@
     <t>45,75%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>40,73%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
   </si>
   <si>
     <t>43,27%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
   </si>
   <si>
     <t>54,25%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>59,27%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>56,73%</t>
   </si>
   <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
   </si>
   <si>
     <t>35,42%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>73,79%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
   </si>
   <si>
     <t>69,73%</t>
   </si>
   <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
   </si>
   <si>
     <t>36,6%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
   </si>
   <si>
     <t>31,76%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
   </si>
   <si>
     <t>71,84%</t>
   </si>
   <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>63,4%</t>
   </si>
   <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>68,24%</t>
   </si>
   <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
   </si>
   <si>
     <t>24,13%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>20,98%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>80,44%</t>
   </si>
   <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>79,02%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>41,9%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>87,49%</t>
   </si>
   <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>58,1%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>76,61%</t>
   </si>
   <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
   </si>
   <si>
     <t>34,69%</t>
   </si>
   <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
   </si>
   <si>
     <t>76,17%</t>
   </si>
   <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
   </si>
   <si>
     <t>65,31%</t>
   </si>
   <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>71,85%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2015 (Tasa respuesta: 8,05%)</t>
@@ -773,265 +773,271 @@
     <t>43,66%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
   </si>
   <si>
     <t>51,25%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>56,34%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>48,75%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
   </si>
   <si>
     <t>37,07%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
   </si>
   <si>
     <t>33,22%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
   </si>
   <si>
     <t>62,93%</t>
   </si>
   <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>66,78%</t>
   </si>
   <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
   </si>
   <si>
     <t>64,32%</t>
   </si>
   <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>46,27%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
   </si>
   <si>
     <t>39,84%</t>
   </si>
   <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>53,73%</t>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>56,07%</t>
   </si>
   <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>60,16%</t>
   </si>
   <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
   </si>
   <si>
     <t>39,74%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
   </si>
   <si>
     <t>40,42%</t>
   </si>
   <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
   </si>
   <si>
     <t>60,26%</t>
   </si>
   <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
   </si>
   <si>
     <t>58,47%</t>
   </si>
   <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
   </si>
   <si>
     <t>59,58%</t>
   </si>
   <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
   </si>
   <si>
     <t>44,02%</t>
   </si>
   <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
   </si>
   <si>
     <t>44,35%</t>
   </si>
   <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
   </si>
   <si>
     <t>55,98%</t>
   </si>
   <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>55,65%</t>
   </si>
   <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -1043,55 +1049,49 @@
     <t>38,84%</t>
   </si>
   <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
   </si>
   <si>
     <t>60,13%</t>
   </si>
   <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
@@ -1103,19 +1103,19 @@
     <t>42,3%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
   </si>
   <si>
     <t>39,77%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>66,99%</t>
@@ -1124,217 +1124,217 @@
     <t>57,7%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>43,52%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>42,7%</t>
   </si>
   <si>
-    <t>28,48%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
   </si>
   <si>
     <t>57,3%</t>
   </si>
   <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>56,88%</t>
   </si>
   <si>
-    <t>67,63%</t>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
   </si>
   <si>
     <t>29,12%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
   </si>
   <si>
     <t>38,59%</t>
   </si>
   <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>40,85%</t>
   </si>
   <si>
     <t>70,88%</t>
   </si>
   <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
   </si>
   <si>
     <t>61,41%</t>
   </si>
   <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>59,15%</t>
   </si>
   <si>
     <t>37,92%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>44,37%</t>
   </si>
   <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
   </si>
   <si>
     <t>62,08%</t>
   </si>
   <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
   </si>
   <si>
     <t>55,63%</t>
   </si>
   <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
   </si>
   <si>
     <t>34,36%</t>
   </si>
   <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
   </si>
   <si>
     <t>39,06%</t>
   </si>
   <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
   <si>
     <t>65,64%</t>
   </si>
   <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
   </si>
   <si>
     <t>60,94%</t>
   </si>
   <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -1343,13 +1343,13 @@
     <t>33,62%</t>
   </si>
   <si>
-    <t>82,66%</t>
+    <t>82,62%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>53,52%</t>
+    <t>55,36%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -1358,55 +1358,67 @@
     <t>66,38%</t>
   </si>
   <si>
-    <t>17,34%</t>
+    <t>17,38%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>46,48%</t>
+    <t>44,64%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>41,15%</t>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>42,66%</t>
   </si>
   <si>
-    <t>48,13%</t>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
   </si>
   <si>
     <t>39,0%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>64,77%</t>
   </si>
   <si>
-    <t>58,85%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>51,87%</t>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EE448A-D14E-4D6A-AB13-62DF4DCA18E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E148672B-1C88-498D-8CD0-CAB591925A07}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3031,7 +3043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C19C728-EA1D-49FA-AA9E-E65CB000CAAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35904703-8FD4-43CF-9F1F-D73D42A967AF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4145,7 +4157,7 @@
         <v>366</v>
       </c>
       <c r="N23" s="7">
-        <v>387234</v>
+        <v>387233</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>239</v>
@@ -4196,7 +4208,7 @@
         <v>508</v>
       </c>
       <c r="N24" s="7">
-        <v>538982</v>
+        <v>538981</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4232,7 +4244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D125B25-872D-45A8-B3CA-80BEF075C5BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0CF59E-8F73-471D-B601-D79437FE7264}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4669,10 +4681,10 @@
         <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4681,13 +4693,13 @@
         <v>31390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -4696,13 +4708,13 @@
         <v>73531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4729,13 @@
         <v>70982</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>290</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -4732,13 +4744,13 @@
         <v>40068</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
@@ -4747,13 +4759,13 @@
         <v>111050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4833,13 @@
         <v>36337</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4836,13 +4848,13 @@
         <v>23303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4851,13 +4863,13 @@
         <v>59640</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4884,13 @@
         <v>55091</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -4887,13 +4899,13 @@
         <v>32804</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -4902,13 +4914,13 @@
         <v>87895</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4988,13 @@
         <v>19741</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4991,13 +5003,13 @@
         <v>13806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -5006,13 +5018,13 @@
         <v>33547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5039,13 @@
         <v>25107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5042,13 +5054,13 @@
         <v>16993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5057,13 +5069,13 @@
         <v>42099</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,7 +5149,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5165,7 +5177,7 @@
         <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,7 +5195,7 @@
         <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -5211,7 +5223,7 @@
         <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -5280,13 +5292,13 @@
         <v>135950</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -5295,13 +5307,13 @@
         <v>89846</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>336</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -5310,13 +5322,13 @@
         <v>225796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5343,13 @@
         <v>214051</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H23" s="7">
         <v>121</v>
@@ -5346,7 +5358,7 @@
         <v>126452</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>346</v>
@@ -5445,7 +5457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A49E33-B6ED-4114-B566-504B75861136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305DCD79-5816-47BE-957C-E07876DF4CA8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5760,7 +5772,7 @@
         <v>373</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5787,13 @@
         <v>33003</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -5790,13 +5802,13 @@
         <v>32028</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -5805,13 +5817,13 @@
         <v>65031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5891,13 @@
         <v>28751</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5894,13 +5906,13 @@
         <v>31277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -5909,13 +5921,13 @@
         <v>60028</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>387</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5942,13 @@
         <v>69989</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -5945,13 +5957,13 @@
         <v>49773</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M11" s="7">
         <v>146</v>
@@ -5960,13 +5972,13 @@
         <v>119762</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>397</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6046,13 @@
         <v>42733</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -6049,13 +6061,13 @@
         <v>63588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -6064,13 +6076,13 @@
         <v>106321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6097,13 @@
         <v>69969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -6100,13 +6112,13 @@
         <v>79714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M14" s="7">
         <v>178</v>
@@ -6115,13 +6127,13 @@
         <v>149683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6201,13 @@
         <v>24339</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -6204,13 +6216,13 @@
         <v>26793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -6219,13 +6231,13 @@
         <v>51131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6252,13 @@
         <v>46492</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -6255,7 +6267,7 @@
         <v>33272</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>426</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>427</v>
@@ -6502,10 +6514,10 @@
         <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>443</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
@@ -6514,13 +6526,13 @@
         <v>153787</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>305</v>
@@ -6529,13 +6541,13 @@
         <v>277150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6562,13 @@
         <v>226830</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>24</v>
+        <v>453</v>
       </c>
       <c r="H23" s="7">
         <v>276</v>
@@ -6565,13 +6577,13 @@
         <v>206695</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>456</v>
       </c>
       <c r="M23" s="7">
         <v>503</v>
@@ -6580,13 +6592,13 @@
         <v>433525</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6903-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{560AE2AB-337F-4AA9-A03C-3D43A32D787E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2DB9C4D-CA97-4635-B175-F4D96A5FD4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB7F8417-EAF6-427F-BEC5-3103D5568020}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B15ABABD-AA76-491E-B292-9797D2578345}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="464">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>37,31%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
   </si>
   <si>
     <t>35,08%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>62,69%</t>
   </si>
   <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>64,92%</t>
   </si>
   <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>34,79%</t>
   </si>
   <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
   </si>
   <si>
     <t>31,94%</t>
   </si>
   <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
   </si>
   <si>
     <t>65,21%</t>
   </si>
   <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>68,06%</t>
   </si>
   <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>35,87%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
   </si>
   <si>
     <t>31,45%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>34,29%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>64,13%</t>
   </si>
   <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
   </si>
   <si>
     <t>68,55%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
   </si>
   <si>
     <t>65,71%</t>
   </si>
   <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>26,63%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
   </si>
   <si>
     <t>39,27%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>73,37%</t>
   </si>
   <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>60,73%</t>
   </si>
   <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>16,77%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>28,63%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>83,23%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>71,37%</t>
   </si>
   <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -386,55 +386,55 @@
     <t>31,59%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>30,78%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>68,41%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>69,22%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
   </si>
   <si>
     <t>68,67%</t>
   </si>
   <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -446,880 +446,892 @@
     <t>45,75%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>40,73%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
   </si>
   <si>
     <t>43,27%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
   </si>
   <si>
     <t>54,25%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>59,27%</t>
   </si>
   <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>56,73%</t>
   </si>
   <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>35,42%</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
   </si>
   <si>
     <t>73,79%</t>
   </si>
   <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>69,73%</t>
   </si>
   <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
   </si>
   <si>
     <t>36,6%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
+    <t>48,97%</t>
   </si>
   <si>
     <t>31,76%</t>
   </si>
   <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>71,84%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>63,4%</t>
   </si>
   <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>51,03%</t>
   </si>
   <si>
     <t>68,24%</t>
   </si>
   <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
   </si>
   <si>
     <t>24,13%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
   </si>
   <si>
     <t>20,98%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>80,44%</t>
   </si>
   <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
   </si>
   <si>
     <t>79,02%</t>
   </si>
   <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
   </si>
   <si>
     <t>72,9%</t>
   </si>
   <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>44,61%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
   </si>
   <si>
     <t>55,39%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
   </si>
   <si>
     <t>45,08%</t>
@@ -1830,7 +1842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E148672B-1C88-498D-8CD0-CAB591925A07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFF2E3D-3F39-4F30-B5E4-EA75CC0A3736}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3043,7 +3055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35904703-8FD4-43CF-9F1F-D73D42A967AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EAAA8F-94FE-4880-BB6B-8EE811A5B9CF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3495,10 +3507,10 @@
         <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -3507,13 +3519,13 @@
         <v>54148</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3540,13 @@
         <v>70310</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -3543,13 +3555,13 @@
         <v>46048</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>111</v>
@@ -3558,13 +3570,13 @@
         <v>116359</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3644,13 @@
         <v>17414</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3647,13 +3659,13 @@
         <v>9722</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3662,13 +3674,13 @@
         <v>27136</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3695,13 @@
         <v>71607</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -3698,13 +3710,13 @@
         <v>30574</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -3713,13 +3725,13 @@
         <v>102182</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3799,13 @@
         <v>5232</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3802,13 +3814,13 @@
         <v>10299</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3817,13 +3829,13 @@
         <v>15532</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3850,13 @@
         <v>36602</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -3853,13 +3865,13 @@
         <v>14283</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -3868,13 +3880,13 @@
         <v>50884</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4091,13 @@
         <v>77275</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -4094,13 +4106,13 @@
         <v>74473</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M22" s="7">
         <v>142</v>
@@ -4109,13 +4121,13 @@
         <v>151748</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4142,13 @@
         <v>247028</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H23" s="7">
         <v>128</v>
@@ -4145,13 +4157,13 @@
         <v>140205</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M23" s="7">
         <v>366</v>
@@ -4160,13 +4172,13 @@
         <v>387233</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,7 +4256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0CF59E-8F73-471D-B601-D79437FE7264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B286BA-EEF8-4F38-9202-9C32314BFEEA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4261,7 +4273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4368,13 +4380,13 @@
         <v>7489</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4383,13 +4395,13 @@
         <v>5967</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4398,13 +4410,13 @@
         <v>13456</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4431,13 @@
         <v>9662</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4434,13 +4446,13 @@
         <v>5676</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4449,13 +4461,13 @@
         <v>15338</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4535,13 @@
         <v>30243</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4538,13 +4550,13 @@
         <v>15380</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -4553,13 +4565,13 @@
         <v>45623</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4586,13 @@
         <v>51329</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -4589,13 +4601,13 @@
         <v>30911</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -4604,13 +4616,13 @@
         <v>82240</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4690,13 @@
         <v>42141</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4693,13 +4705,13 @@
         <v>31390</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -4708,13 +4720,13 @@
         <v>73531</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4741,13 @@
         <v>70982</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -4744,13 +4756,13 @@
         <v>40068</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
@@ -4759,13 +4771,13 @@
         <v>111050</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4845,13 @@
         <v>36337</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4848,13 +4860,13 @@
         <v>23303</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4863,13 +4875,13 @@
         <v>59640</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4896,13 @@
         <v>55091</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -4899,13 +4911,13 @@
         <v>32804</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -4914,13 +4926,13 @@
         <v>87895</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5000,13 @@
         <v>19741</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5003,13 +5015,13 @@
         <v>13806</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -5018,13 +5030,13 @@
         <v>33547</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5051,13 @@
         <v>25107</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5054,13 +5066,13 @@
         <v>16993</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5069,13 +5081,13 @@
         <v>42099</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,7 +5161,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5177,7 +5189,7 @@
         <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,7 +5207,7 @@
         <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -5223,7 +5235,7 @@
         <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -5292,13 +5304,13 @@
         <v>135950</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -5307,13 +5319,13 @@
         <v>89846</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>229</v>
+        <v>336</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -5322,13 +5334,13 @@
         <v>225796</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5355,13 @@
         <v>214051</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H23" s="7">
         <v>121</v>
@@ -5358,7 +5370,7 @@
         <v>126452</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>237</v>
+        <v>345</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>346</v>
@@ -5457,7 +5469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305DCD79-5816-47BE-957C-E07876DF4CA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D72010-022D-42A5-82FE-2ABF524EC92E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5924,10 +5936,10 @@
         <v>390</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5954,13 @@
         <v>69989</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -5957,13 +5969,13 @@
         <v>49773</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M11" s="7">
         <v>146</v>
@@ -5972,13 +5984,13 @@
         <v>119762</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6058,13 @@
         <v>42733</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -6061,13 +6073,13 @@
         <v>63588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -6076,13 +6088,13 @@
         <v>106321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6109,13 @@
         <v>69969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -6112,13 +6124,13 @@
         <v>79714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M14" s="7">
         <v>178</v>
@@ -6127,13 +6139,13 @@
         <v>149683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6213,13 @@
         <v>24339</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -6216,13 +6228,13 @@
         <v>26793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -6231,13 +6243,13 @@
         <v>51131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,13 +6264,13 @@
         <v>46492</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -6267,13 +6279,13 @@
         <v>33272</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
@@ -6282,13 +6294,13 @@
         <v>79765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,7 +6374,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6371,13 +6383,13 @@
         <v>1053</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6386,13 +6398,13 @@
         <v>1053</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,7 +6422,7 @@
         <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6422,10 +6434,10 @@
         <v>2078</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>112</v>
@@ -6437,10 +6449,10 @@
         <v>5168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>112</v>
@@ -6511,13 +6523,13 @@
         <v>123363</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
@@ -6526,13 +6538,13 @@
         <v>153787</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M22" s="7">
         <v>305</v>
@@ -6541,13 +6553,13 @@
         <v>277150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,13 +6574,13 @@
         <v>226830</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H23" s="7">
         <v>276</v>
@@ -6577,13 +6589,13 @@
         <v>206695</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M23" s="7">
         <v>503</v>
@@ -6592,13 +6604,13 @@
         <v>433525</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6903-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2DB9C4D-CA97-4635-B175-F4D96A5FD4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96426CCC-8A9E-443C-964B-5EA0A6FF486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B15ABABD-AA76-491E-B292-9797D2578345}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AAB7A135-2C2A-45AF-82AF-01708E44C8FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>35,08%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>62,69%</t>
   </si>
   <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>64,92%</t>
   </si>
   <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>34,79%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
   </si>
   <si>
     <t>31,94%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
   </si>
   <si>
     <t>65,21%</t>
   </si>
   <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>68,06%</t>
   </si>
   <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,841 +197,841 @@
     <t>35,87%</t>
   </si>
   <si>
-    <t>27,93%</t>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>44,78%</t>
   </si>
   <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
   </si>
   <si>
     <t>55,22%</t>
   </si>
   <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
+    <t>72,18%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
+    <t>46,27%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>39,84%</t>
   </si>
   <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>53,73%</t>
   </si>
   <si>
     <t>56,07%</t>
   </si>
   <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
   <si>
     <t>60,16%</t>
   </si>
   <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
   </si>
   <si>
     <t>39,74%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
   </si>
   <si>
     <t>40,42%</t>
   </si>
   <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
   </si>
   <si>
     <t>60,26%</t>
   </si>
   <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
   </si>
   <si>
     <t>58,47%</t>
   </si>
   <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
   </si>
   <si>
     <t>59,58%</t>
   </si>
   <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>44,02%</t>
   </si>
   <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
   </si>
   <si>
     <t>44,35%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
   </si>
   <si>
     <t>55,98%</t>
   </si>
   <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
   </si>
   <si>
     <t>55,65%</t>
   </si>
   <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -1043,55 +1043,55 @@
     <t>38,84%</t>
   </si>
   <si>
-    <t>33,27%</t>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
   </si>
   <si>
     <t>44,44%</t>
   </si>
   <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
     <t>61,16%</t>
   </si>
   <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
     <t>55,56%</t>
   </si>
   <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
+    <t>64,11%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
@@ -1103,19 +1103,19 @@
     <t>42,3%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>39,77%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>66,99%</t>
@@ -1124,229 +1124,217 @@
     <t>57,7%</t>
   </si>
   <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>43,52%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
   </si>
   <si>
     <t>42,7%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
   </si>
   <si>
     <t>43,12%</t>
   </si>
   <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
+    <t>32,37%</t>
   </si>
   <si>
     <t>56,48%</t>
   </si>
   <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
   <si>
     <t>56,88%</t>
   </si>
   <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
+    <t>67,63%</t>
   </si>
   <si>
     <t>29,12%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
   </si>
   <si>
     <t>38,59%</t>
   </si>
   <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>70,88%</t>
   </si>
   <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
   </si>
   <si>
     <t>61,41%</t>
   </si>
   <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>37,92%</t>
   </si>
   <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>44,37%</t>
   </si>
   <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
   </si>
   <si>
     <t>62,08%</t>
   </si>
   <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
   </si>
   <si>
     <t>55,63%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
   </si>
   <si>
     <t>34,36%</t>
   </si>
   <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
   </si>
   <si>
     <t>44,61%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
   </si>
   <si>
     <t>39,06%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
   </si>
   <si>
     <t>65,64%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
   </si>
   <si>
     <t>55,39%</t>
   </si>
   <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>60,94%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -1355,13 +1343,13 @@
     <t>33,62%</t>
   </si>
   <si>
-    <t>82,62%</t>
+    <t>82,66%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>55,36%</t>
+    <t>53,52%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -1370,67 +1358,55 @@
     <t>66,38%</t>
   </si>
   <si>
-    <t>17,38%</t>
+    <t>17,34%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>44,64%</t>
+    <t>46,48%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>41,15%</t>
   </si>
   <si>
     <t>42,66%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
+    <t>48,13%</t>
   </si>
   <si>
     <t>39,0%</t>
   </si>
   <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>64,77%</t>
   </si>
   <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
+    <t>58,85%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>51,87%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFF2E3D-3F39-4F30-B5E4-EA75CC0A3736}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EABAA9-D6CA-4195-BDDF-E481A39271E5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3055,7 +3031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EAAA8F-94FE-4880-BB6B-8EE811A5B9CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDDB530-F5C3-4843-A46A-BF1FF727FC60}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3507,10 +3483,10 @@
         <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -3519,13 +3495,13 @@
         <v>54148</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3516,13 @@
         <v>70310</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -3555,13 +3531,13 @@
         <v>46048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>111</v>
@@ -3570,13 +3546,13 @@
         <v>116359</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3620,13 @@
         <v>17414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3659,13 +3635,13 @@
         <v>9722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3674,13 +3650,13 @@
         <v>27136</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3671,13 @@
         <v>71607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -3710,13 +3686,13 @@
         <v>30574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -3725,13 +3701,13 @@
         <v>102182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3775,13 @@
         <v>5232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3814,13 +3790,13 @@
         <v>10299</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3829,13 +3805,13 @@
         <v>15532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3826,13 @@
         <v>36602</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -3865,13 +3841,13 @@
         <v>14283</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -3880,13 +3856,13 @@
         <v>50884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4067,13 @@
         <v>77275</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -4106,13 +4082,13 @@
         <v>74473</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7">
         <v>142</v>
@@ -4121,13 +4097,13 @@
         <v>151748</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4118,13 @@
         <v>247028</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H23" s="7">
         <v>128</v>
@@ -4157,28 +4133,28 @@
         <v>140205</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M23" s="7">
         <v>366</v>
       </c>
       <c r="N23" s="7">
-        <v>387233</v>
+        <v>387234</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,7 +4196,7 @@
         <v>508</v>
       </c>
       <c r="N24" s="7">
-        <v>538981</v>
+        <v>538982</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4256,7 +4232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B286BA-EEF8-4F38-9202-9C32314BFEEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD911DA-1ABF-4B84-9E65-B96230683695}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4273,7 +4249,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4380,13 +4356,13 @@
         <v>7489</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4395,13 +4371,13 @@
         <v>5967</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4410,13 +4386,13 @@
         <v>13456</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4407,13 @@
         <v>9662</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4446,13 +4422,13 @@
         <v>5676</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4461,13 +4437,13 @@
         <v>15338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4511,13 @@
         <v>30243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4550,13 +4526,13 @@
         <v>15380</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -4565,13 +4541,13 @@
         <v>45623</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4562,13 @@
         <v>51329</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -4601,13 +4577,13 @@
         <v>30911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -4616,13 +4592,13 @@
         <v>82240</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4666,13 @@
         <v>42141</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4705,13 +4681,13 @@
         <v>31390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -4720,13 +4696,13 @@
         <v>73531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4717,13 @@
         <v>70982</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -5469,7 +5445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D72010-022D-42A5-82FE-2ABF524EC92E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B8C71-74F9-4D9E-92E4-8DA318CCA9FF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5784,7 +5760,7 @@
         <v>373</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>374</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5775,13 @@
         <v>33003</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -5814,13 +5790,13 @@
         <v>32028</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -5829,13 +5805,13 @@
         <v>65031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>382</v>
+        <v>290</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5879,13 @@
         <v>28751</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5918,13 +5894,13 @@
         <v>31277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -5933,13 +5909,13 @@
         <v>60028</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +5930,13 @@
         <v>69989</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -5969,13 +5945,13 @@
         <v>49773</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M11" s="7">
         <v>146</v>
@@ -5984,13 +5960,13 @@
         <v>119762</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6034,13 @@
         <v>42733</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -6073,13 +6049,13 @@
         <v>63588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -6091,10 +6067,10 @@
         <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,13 +6085,13 @@
         <v>69969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -6124,13 +6100,13 @@
         <v>79714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M14" s="7">
         <v>178</v>
@@ -6142,10 +6118,10 @@
         <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,13 +6189,13 @@
         <v>24339</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -6228,13 +6204,13 @@
         <v>26793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -6243,13 +6219,13 @@
         <v>51131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6240,13 @@
         <v>46492</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -6279,13 +6255,13 @@
         <v>33272</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
@@ -6294,13 +6270,13 @@
         <v>79765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,7 +6350,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6383,13 +6359,13 @@
         <v>1053</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6398,13 +6374,13 @@
         <v>1053</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,7 +6398,7 @@
         <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6434,10 +6410,10 @@
         <v>2078</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>112</v>
@@ -6449,10 +6425,10 @@
         <v>5168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>112</v>
@@ -6523,13 +6499,13 @@
         <v>123363</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>447</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
@@ -6538,13 +6514,13 @@
         <v>153787</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>450</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M22" s="7">
         <v>305</v>
@@ -6553,13 +6529,13 @@
         <v>277150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6550,13 @@
         <v>226830</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>457</v>
+        <v>24</v>
       </c>
       <c r="H23" s="7">
         <v>276</v>
@@ -6589,13 +6565,13 @@
         <v>206695</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>460</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>503</v>
@@ -6604,13 +6580,13 @@
         <v>433525</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6903-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96426CCC-8A9E-443C-964B-5EA0A6FF486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE802CC-FEB6-4253-9773-BA6827A27982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AAB7A135-2C2A-45AF-82AF-01708E44C8FF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{27DF8F5A-3825-4A2E-8C8D-F7EC6428A618}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="461">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>34,79%</t>
@@ -191,7 +191,7 @@
     <t>74,38%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>35,87%</t>
@@ -248,7 +248,7 @@
     <t>72,62%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>26,63%</t>
@@ -305,7 +305,7 @@
     <t>77,92%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>16,77%</t>
@@ -362,7 +362,13 @@
     <t>88,6%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -374,9 +380,6 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -1097,316 +1100,328 @@
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
   </si>
   <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
   </si>
   <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
   </si>
   <si>
     <t>67,63%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>40,16%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>59,84%</t>
   </si>
   <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
 </sst>
 </file>
@@ -1818,8 +1833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EABAA9-D6CA-4195-BDDF-E481A39271E5}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E90E907-7FAA-4D20-816B-4CED04316DEC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2713,45 +2728,41 @@
       <c r="C19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,47 +2771,43 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,100 +2816,94 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>149217</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
-        <v>66</v>
-      </c>
-      <c r="I22" s="7">
-        <v>67753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>216970</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,49 +2912,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>323088</v>
+        <v>821</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
-        <v>149</v>
-      </c>
-      <c r="I23" s="7">
-        <v>152368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>460</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>475457</v>
+        <v>821</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,63 +2961,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>821</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>821</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>139</v>
+      </c>
+      <c r="D25" s="7">
+        <v>149217</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="7">
+        <v>66</v>
+      </c>
+      <c r="I25" s="7">
+        <v>67753</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" s="7">
+        <v>205</v>
+      </c>
+      <c r="N25" s="7">
+        <v>216970</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>311</v>
+      </c>
+      <c r="D26" s="7">
+        <v>323088</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="7">
+        <v>149</v>
+      </c>
+      <c r="I26" s="7">
+        <v>152368</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M26" s="7">
+        <v>460</v>
+      </c>
+      <c r="N26" s="7">
+        <v>475457</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>450</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>472305</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>215</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>220121</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>665</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>692427</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3031,8 +3184,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDDB530-F5C3-4843-A46A-BF1FF727FC60}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F39B450-6FD9-4048-9559-1661DB1F5815}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3048,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3155,13 +3308,13 @@
         <v>4724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3170,13 +3323,13 @@
         <v>4096</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3185,13 +3338,13 @@
         <v>8820</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3359,13 @@
         <v>5603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3221,13 +3374,13 @@
         <v>5960</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3236,13 +3389,13 @@
         <v>11563</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3463,13 @@
         <v>22339</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3325,13 +3478,13 @@
         <v>23773</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -3340,13 +3493,13 @@
         <v>46112</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3514,13 @@
         <v>62907</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -3376,13 +3529,13 @@
         <v>43339</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -3391,13 +3544,13 @@
         <v>106246</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3618,13 @@
         <v>27566</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3480,13 +3633,13 @@
         <v>26583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -3495,13 +3648,13 @@
         <v>54148</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3669,13 @@
         <v>70310</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -3531,13 +3684,13 @@
         <v>46048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>111</v>
@@ -3546,13 +3699,13 @@
         <v>116359</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3773,13 @@
         <v>17414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3635,13 +3788,13 @@
         <v>9722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3650,13 +3803,13 @@
         <v>27136</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3824,13 @@
         <v>71607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -3686,13 +3839,13 @@
         <v>30574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -3701,13 +3854,13 @@
         <v>102182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3928,13 @@
         <v>5232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3790,13 +3943,13 @@
         <v>10299</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3805,13 +3958,13 @@
         <v>15532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3979,13 @@
         <v>36602</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -3841,13 +3994,13 @@
         <v>14283</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -3856,13 +4009,13 @@
         <v>50884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,39 +4081,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,39 +4126,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,92 +4171,86 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>73</v>
-      </c>
-      <c r="D22" s="7">
-        <v>77275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>69</v>
-      </c>
-      <c r="I22" s="7">
-        <v>74473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>142</v>
-      </c>
-      <c r="N22" s="7">
-        <v>151748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,49 +4259,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>238</v>
-      </c>
-      <c r="D23" s="7">
-        <v>247028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>128</v>
-      </c>
-      <c r="I23" s="7">
-        <v>140205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>366</v>
-      </c>
-      <c r="N23" s="7">
-        <v>387234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,63 +4304,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>73</v>
+      </c>
+      <c r="D25" s="7">
+        <v>77275</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" s="7">
+        <v>69</v>
+      </c>
+      <c r="I25" s="7">
+        <v>74473</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" s="7">
+        <v>142</v>
+      </c>
+      <c r="N25" s="7">
+        <v>151748</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>238</v>
+      </c>
+      <c r="D26" s="7">
+        <v>247028</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="7">
+        <v>128</v>
+      </c>
+      <c r="I26" s="7">
+        <v>140205</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" s="7">
+        <v>366</v>
+      </c>
+      <c r="N26" s="7">
+        <v>387233</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>311</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>324303</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>197</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>214678</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>508</v>
       </c>
-      <c r="N24" s="7">
-        <v>538982</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="N27" s="7">
+        <v>538981</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4232,8 +4523,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD911DA-1ABF-4B84-9E65-B96230683695}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE73D1F-6489-4BD1-96E9-B2938A30575C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4249,7 +4540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4356,13 +4647,13 @@
         <v>7489</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4371,13 +4662,13 @@
         <v>5967</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4386,13 +4677,13 @@
         <v>13456</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4698,13 @@
         <v>9662</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4422,13 +4713,13 @@
         <v>5676</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4437,13 +4728,13 @@
         <v>15338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4802,13 @@
         <v>30243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4526,13 +4817,13 @@
         <v>15380</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -4541,13 +4832,13 @@
         <v>45623</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4853,13 @@
         <v>51329</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -4577,13 +4868,13 @@
         <v>30911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -4592,13 +4883,13 @@
         <v>82240</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4957,13 @@
         <v>42141</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4681,13 +4972,13 @@
         <v>31390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -4696,13 +4987,13 @@
         <v>73531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,10 +5008,10 @@
         <v>70982</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>68</v>
@@ -4732,13 +5023,13 @@
         <v>40068</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
@@ -4747,13 +5038,13 @@
         <v>111050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +5112,13 @@
         <v>36337</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4836,13 +5127,13 @@
         <v>23303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4851,13 +5142,13 @@
         <v>59640</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +5163,13 @@
         <v>55091</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -4887,13 +5178,13 @@
         <v>32804</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -4902,13 +5193,13 @@
         <v>87895</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5267,13 @@
         <v>19741</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4991,13 +5282,13 @@
         <v>13806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -5006,13 +5297,13 @@
         <v>33547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5318,13 @@
         <v>25107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5042,13 +5333,13 @@
         <v>16993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5057,13 +5348,13 @@
         <v>42099</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,26 +5422,26 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5159,13 +5450,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,10 +5471,10 @@
         <v>1880</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -5193,13 +5484,13 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5208,10 +5499,10 @@
         <v>1880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -5242,13 +5533,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -5268,55 +5559,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>123</v>
-      </c>
-      <c r="D22" s="7">
-        <v>135950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>334</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>335</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>86</v>
-      </c>
-      <c r="I22" s="7">
-        <v>89846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>338</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>209</v>
-      </c>
-      <c r="N22" s="7">
-        <v>225796</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>339</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>340</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>341</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,49 +5610,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>199</v>
-      </c>
-      <c r="D23" s="7">
-        <v>214051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>343</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>344</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>121</v>
-      </c>
-      <c r="I23" s="7">
-        <v>126452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>345</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>347</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>320</v>
-      </c>
-      <c r="N23" s="7">
-        <v>340503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>348</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>349</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>350</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,63 +5655,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>123</v>
+      </c>
+      <c r="D25" s="7">
+        <v>135950</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H25" s="7">
+        <v>86</v>
+      </c>
+      <c r="I25" s="7">
+        <v>89846</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M25" s="7">
+        <v>209</v>
+      </c>
+      <c r="N25" s="7">
+        <v>225796</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>199</v>
+      </c>
+      <c r="D26" s="7">
+        <v>214051</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H26" s="7">
+        <v>121</v>
+      </c>
+      <c r="I26" s="7">
+        <v>126452</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M26" s="7">
+        <v>320</v>
+      </c>
+      <c r="N26" s="7">
+        <v>340503</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>322</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>350001</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>207</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>216298</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>529</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>566299</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5445,8 +5874,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B8C71-74F9-4D9E-92E4-8DA318CCA9FF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D6D728-8806-45FF-BE5B-85FBDE641181}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5462,7 +5891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5566,25 +5995,25 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>2112</v>
+        <v>1805</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>7207</v>
+        <v>6118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>354</v>
@@ -5596,7 +6025,7 @@
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>9320</v>
+        <v>7923</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>356</v>
@@ -5617,46 +6046,46 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>4286</v>
+        <v>4184</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>359</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>9830</v>
+        <v>9226</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>14115</v>
+        <v>13410</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,7 +6097,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5683,7 +6112,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>17037</v>
+        <v>15344</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5698,7 +6127,7 @@
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>23435</v>
+        <v>21333</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5721,46 +6150,46 @@
         <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>25429</v>
+        <v>24957</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>23869</v>
+        <v>20871</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>49298</v>
+        <v>45828</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,7 +6201,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>33003</v>
+        <v>34117</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>374</v>
@@ -5787,31 +6216,31 @@
         <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>32028</v>
+        <v>29078</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>65031</v>
+        <v>63194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,7 +6252,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="7">
-        <v>58432</v>
+        <v>59074</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5838,7 +6267,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>55897</v>
+        <v>49949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5853,7 +6282,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>114329</v>
+        <v>109022</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5876,46 +6305,46 @@
         <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>28751</v>
+        <v>26635</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>31277</v>
+        <v>28746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
       </c>
       <c r="N10" s="7">
-        <v>60028</v>
+        <v>55381</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,46 +6356,46 @@
         <v>71</v>
       </c>
       <c r="D11" s="7">
-        <v>69989</v>
+        <v>68896</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
       </c>
       <c r="I11" s="7">
-        <v>49773</v>
+        <v>46806</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M11" s="7">
         <v>146</v>
       </c>
       <c r="N11" s="7">
-        <v>119762</v>
+        <v>115703</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,7 +6407,7 @@
         <v>97</v>
       </c>
       <c r="D12" s="7">
-        <v>98740</v>
+        <v>95531</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5993,7 +6422,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="7">
-        <v>81050</v>
+        <v>75552</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6008,7 +6437,7 @@
         <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>179790</v>
+        <v>171084</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6031,46 +6460,46 @@
         <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>42733</v>
+        <v>39382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
       </c>
       <c r="I13" s="7">
-        <v>63588</v>
+        <v>56683</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
       </c>
       <c r="N13" s="7">
-        <v>106321</v>
+        <v>96066</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>407</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,46 +6511,46 @@
         <v>72</v>
       </c>
       <c r="D14" s="7">
-        <v>69969</v>
+        <v>67380</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
       </c>
       <c r="I14" s="7">
-        <v>79714</v>
+        <v>97584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M14" s="7">
         <v>178</v>
       </c>
       <c r="N14" s="7">
-        <v>149683</v>
+        <v>164964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>416</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,7 +6562,7 @@
         <v>111</v>
       </c>
       <c r="D15" s="7">
-        <v>112702</v>
+        <v>106762</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6148,7 +6577,7 @@
         <v>190</v>
       </c>
       <c r="I15" s="7">
-        <v>143302</v>
+        <v>154267</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6163,7 +6592,7 @@
         <v>301</v>
       </c>
       <c r="N15" s="7">
-        <v>256004</v>
+        <v>261030</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6186,46 +6615,46 @@
         <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>24339</v>
+        <v>22406</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
       </c>
       <c r="I16" s="7">
-        <v>26793</v>
+        <v>24801</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>326</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
       </c>
       <c r="N16" s="7">
-        <v>51131</v>
+        <v>47208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>421</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,46 +6666,46 @@
         <v>51</v>
       </c>
       <c r="D17" s="7">
-        <v>46492</v>
+        <v>44171</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
       </c>
       <c r="I17" s="7">
-        <v>33272</v>
+        <v>30706</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
       </c>
       <c r="N17" s="7">
-        <v>79765</v>
+        <v>74876</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>431</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,7 +6717,7 @@
         <v>76</v>
       </c>
       <c r="D18" s="7">
-        <v>70831</v>
+        <v>66577</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6303,7 +6732,7 @@
         <v>102</v>
       </c>
       <c r="I18" s="7">
-        <v>60065</v>
+        <v>55507</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6318,7 +6747,7 @@
         <v>178</v>
       </c>
       <c r="N18" s="7">
-        <v>130896</v>
+        <v>122084</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6344,43 +6773,43 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1053</v>
+        <v>993</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1053</v>
+        <v>993</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6821,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6407,31 +6836,31 @@
         <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>2078</v>
+        <v>1921</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>5168</v>
+        <v>4843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,7 +6872,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6458,7 +6887,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>3131</v>
+        <v>2914</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6473,7 +6902,7 @@
         <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>6221</v>
+        <v>5836</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6487,55 +6916,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>108</v>
-      </c>
-      <c r="D22" s="7">
-        <v>123363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>442</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>443</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>197</v>
-      </c>
-      <c r="I22" s="7">
-        <v>153787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>444</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>305</v>
-      </c>
-      <c r="N22" s="7">
-        <v>277150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>448</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,49 +6967,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>227</v>
-      </c>
-      <c r="D23" s="7">
-        <v>226830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>449</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>450</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>276</v>
-      </c>
-      <c r="I23" s="7">
-        <v>206695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>451</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>452</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>503</v>
-      </c>
-      <c r="N23" s="7">
-        <v>433525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,63 +7012,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>108</v>
+      </c>
+      <c r="D25" s="7">
+        <v>115185</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H25" s="7">
+        <v>197</v>
+      </c>
+      <c r="I25" s="7">
+        <v>138214</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="M25" s="7">
+        <v>305</v>
+      </c>
+      <c r="N25" s="7">
+        <v>253399</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>227</v>
+      </c>
+      <c r="D26" s="7">
+        <v>221670</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H26" s="7">
+        <v>276</v>
+      </c>
+      <c r="I26" s="7">
+        <v>215320</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M26" s="7">
+        <v>503</v>
+      </c>
+      <c r="N26" s="7">
+        <v>436990</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>335</v>
       </c>
-      <c r="D24" s="7">
-        <v>350193</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>336855</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>473</v>
       </c>
-      <c r="I24" s="7">
-        <v>360482</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>353534</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>808</v>
       </c>
-      <c r="N24" s="7">
-        <v>710675</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="N27" s="7">
+        <v>690389</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
